--- a/homework/test1.xlsx
+++ b/homework/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\python\training\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC4498-D6B1-412F-A9E0-71554FE387F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C95AF65-385A-4D10-A88C-0D947F33E143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
   <si>
     <t>c1</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>c77</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -158,6 +191,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6A3DEB4-692E-4D50-BD43-C48FF3BC43A9}" name="表1" displayName="表1" ref="A1:K14" totalsRowShown="0">
+  <autoFilter ref="A1:K14" xr:uid="{D433F0D5-2E42-43B9-BC1C-D5A4868586EF}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{60A0C0D1-B2BC-4F67-A2CE-E69DD0CCF4BE}" name="1"/>
+    <tableColumn id="2" xr3:uid="{0C14B516-1C56-4AF3-8460-6CCA31E21331}" name="2"/>
+    <tableColumn id="3" xr3:uid="{D6C90BD3-659C-4280-9B8D-632A49C59A02}" name="3"/>
+    <tableColumn id="4" xr3:uid="{2382DCFE-2B33-49E4-9EC0-B24973F309F9}" name="4"/>
+    <tableColumn id="5" xr3:uid="{32A9FE91-DF14-47FF-92B1-4FACB9C7FA8C}" name="5"/>
+    <tableColumn id="6" xr3:uid="{AF2C2184-6A8C-470D-8EB6-15B51AAD8C4F}" name="6"/>
+    <tableColumn id="7" xr3:uid="{21BD3A56-B9DC-48D3-B6D8-DFE8709AF130}" name="7"/>
+    <tableColumn id="8" xr3:uid="{C4089CAF-68E9-402A-81CE-B619324EFBB1}" name="8"/>
+    <tableColumn id="9" xr3:uid="{A8E2AEF2-4A5E-4553-912A-F6310EF30DCE}" name="9"/>
+    <tableColumn id="10" xr3:uid="{009AAD5A-A184-4D5F-99E9-62E8AEF6E41E}" name="10"/>
+    <tableColumn id="11" xr3:uid="{402BB08F-3AE8-4874-B69D-C03C54509BC6}" name="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,44 +479,44 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>11</v>
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -924,5 +977,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>